--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>2.783099145844778</v>
+        <v>2.378551110046111</v>
       </c>
       <c r="R2">
-        <v>25.047892312603</v>
+        <v>21.406959990415</v>
       </c>
       <c r="S2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="T2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
         <v>2.626211545442556</v>
@@ -632,10 +632,10 @@
         <v>23.635903908983</v>
       </c>
       <c r="S3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="T3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>2.381927706223444</v>
+        <v>3.631792495740112</v>
       </c>
       <c r="R4">
-        <v>21.437349356011</v>
+        <v>32.686132461661</v>
       </c>
       <c r="S4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="T4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
     </row>
   </sheetData>
